--- a/TP1-A21/data_resultat.xlsx
+++ b/TP1-A21/data_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Desktop\Poly\A2021\INF8775\TPs\TP1-A21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4D119B-394C-40BB-A27A-7C899DF1842D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE886251-694A-455E-A8D1-6110B7C58601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D10583DE-7CAB-4211-8E9D-E4F57287116E}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>3.6219886</f>
-        <v>3.6219885999999999</v>
+        <f>0.0001142999999999</f>
+        <v>1.142999999999E-4</v>
       </c>
       <c r="E2">
-        <f>46.2854847</f>
-        <v>46.285484699999998</v>
+        <f>0.00213700000000005</f>
+        <v>2.1370000000000499E-3</v>
       </c>
       <c r="F2">
-        <f>9.30583839999999</f>
-        <v>9.3058383999999901</v>
+        <f>0.000355700000000069</f>
+        <v>3.5570000000006898E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -485,16 +485,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>3.38426029999999</f>
-        <v>3.38426029999999</v>
+        <f>0.000198099999999978</f>
+        <v>1.9809999999997801E-4</v>
       </c>
       <c r="E3">
-        <f>45.636579</f>
-        <v>45.636578999999998</v>
+        <f>0.00317279999999997</f>
+        <v>3.17279999999997E-3</v>
       </c>
       <c r="F3">
-        <f>7.83211679999999</f>
-        <v>7.8321167999999899</v>
+        <f>0.000554500000000013</f>
+        <v>5.5450000000001299E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -505,16 +505,16 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>3.21937170000001</f>
-        <v>3.2193717000000102</v>
+        <f>0.000146400000000213</f>
+        <v>1.46400000000213E-4</v>
       </c>
       <c r="E4">
-        <f>50.0414246</f>
-        <v>50.041424599999999</v>
+        <f>0.0024341000000001</f>
+        <v>2.4341000000001E-3</v>
       </c>
       <c r="F4">
-        <f>7.67843239999999</f>
-        <v>7.6784323999999904</v>
+        <f>0.00061409999999995</f>
+        <v>6.1409999999995004E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -525,16 +525,16 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f>5.52993319999998</f>
-        <v>5.5299331999999799</v>
+        <f>0.000177500000000163</f>
+        <v>1.7750000000016299E-4</v>
       </c>
       <c r="E5">
-        <f>72.4898332999999</f>
-        <v>72.489833299999901</v>
+        <f>0.00331159999999997</f>
+        <v>3.3115999999999701E-3</v>
       </c>
       <c r="F5">
-        <f>14.7271697999999</f>
-        <v>14.727169799999899</v>
+        <f>0.000503200000000037</f>
+        <v>5.0320000000003695E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,16 +548,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <f>3.52743350000002</f>
-        <v>3.5274335000000199</v>
+        <f>0.000640999999999891</f>
+        <v>6.4099999999989101E-4</v>
       </c>
       <c r="E7">
-        <f>43.9028711</f>
-        <v>43.902871099999999</v>
+        <f>0.0149292999999999</f>
+        <v>1.4929299999999901E-2</v>
       </c>
       <c r="F7">
-        <f>6.46177339999997</f>
-        <v>6.46177339999997</v>
+        <f>0.00240459999999997</f>
+        <v>2.4045999999999699E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -568,16 +568,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <f>2.31128339999997</f>
-        <v>2.31128339999997</v>
+        <f>0.000795900000000182</f>
+        <v>7.9590000000018203E-4</v>
       </c>
       <c r="E8">
-        <f>40.0934801999999</f>
-        <v>40.093480199999902</v>
+        <f>0.0132726999999999</f>
+        <v>1.32726999999999E-2</v>
       </c>
       <c r="F8">
-        <f>6.2792958</f>
-        <v>6.2792957999999999</v>
+        <f>0.00232900000000002</f>
+        <v>2.3290000000000199E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,16 +588,16 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <f>2.33674870000004</f>
-        <v>2.3367487000000402</v>
+        <f>0.000639599999999962</f>
+        <v>6.3959999999996199E-4</v>
       </c>
       <c r="E9">
-        <f>35.3294490999999</f>
-        <v>35.329449099999898</v>
+        <f>0.0117992999999998</f>
+        <v>1.1799299999999799E-2</v>
       </c>
       <c r="F9">
-        <f>6.62552420000002</f>
-        <v>6.6255242000000196</v>
+        <f>0.00385900000000005</f>
+        <v>3.8590000000000499E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -608,16 +608,16 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <f>3.39496970000004</f>
-        <v>3.3949697000000398</v>
+        <f>0.000703499999999968</f>
+        <v>7.0349999999996804E-4</v>
       </c>
       <c r="E10">
-        <f>39.7368207</f>
-        <v>39.736820700000003</v>
+        <f>0.0135918000000001</f>
+        <v>1.35918000000001E-2</v>
       </c>
       <c r="F10">
-        <f>6.2521805</f>
-        <v>6.2521804999999997</v>
+        <f>0.00215269999999989</f>
+        <v>2.1526999999998899E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -631,16 +631,16 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f>2.4583958</f>
-        <v>2.4583957999999999</v>
+        <f>0.00374819999999997</f>
+        <v>3.7481999999999698E-3</v>
       </c>
       <c r="E12">
-        <f>39.3645819999999</f>
-        <v>39.364581999999899</v>
+        <f>0.0860815999999999</f>
+        <v>8.6081599999999897E-2</v>
       </c>
       <c r="F12">
-        <f>7.49013469999999</f>
-        <v>7.4901346999999898</v>
+        <f>0.0157905999999998</f>
+        <v>1.5790599999999801E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -651,16 +651,16 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <f>2.35090609999997</f>
-        <v>2.3509060999999698</v>
+        <f>0.00349830000000017</f>
+        <v>3.4983000000001702E-3</v>
       </c>
       <c r="E13">
-        <f>45.0190656999999</f>
-        <v>45.019065699999899</v>
+        <f>0.0852519</f>
+        <v>8.5251900000000005E-2</v>
       </c>
       <c r="F13">
-        <f>7.51830280000001</f>
-        <v>7.5183028000000096</v>
+        <f>0.0145196</f>
+        <v>1.4519600000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -671,16 +671,16 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <f>2.91379840000001</f>
-        <v>2.9137984000000099</v>
+        <f>0.00408509999999995</f>
+        <v>4.0850999999999501E-3</v>
       </c>
       <c r="E14">
-        <f>42.643755</f>
-        <v>42.643754999999999</v>
+        <f>0.0805109000000001</f>
+        <v>8.0510900000000094E-2</v>
       </c>
       <c r="F14">
-        <f>7.42629409999995</f>
-        <v>7.42629409999995</v>
+        <f>0.0159986999999999</f>
+        <v>1.5998699999999901E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -691,16 +691,16 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <f>3.00845260000005</f>
-        <v>3.0084526000000502</v>
+        <f>0.00564030000000004</f>
+        <v>5.6403000000000399E-3</v>
       </c>
       <c r="E15">
-        <f>42.7223503</f>
-        <v>42.722350300000002</v>
+        <f>0.0880581</f>
+        <v>8.80581E-2</v>
       </c>
       <c r="F15">
-        <f>7.49586099999999</f>
-        <v>7.4958609999999899</v>
+        <f>0.0147247999999999</f>
+        <v>1.4724799999999901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -714,16 +714,16 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>2.90419719999999</f>
-        <v>2.9041971999999898</v>
+        <f>0.0339755999999997</f>
+        <v>3.3975599999999703E-2</v>
       </c>
       <c r="E17">
-        <f>42.9528002999999</f>
-        <v>42.9528002999999</v>
+        <f>0.522863099999999</f>
+        <v>0.52286309999999903</v>
       </c>
       <c r="F17">
-        <f>7.50748090000001</f>
-        <v>7.5074809000000098</v>
+        <f>0.0989227999999999</f>
+        <v>9.8922799999999894E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -734,16 +734,16 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <f>2.56485859999997</f>
-        <v>2.5648585999999698</v>
+        <f>0.0276877999999998</f>
+        <v>2.7687799999999801E-2</v>
       </c>
       <c r="E18">
-        <f>34.0051134999999</f>
-        <v>34.005113499999901</v>
+        <f>0.5391634</f>
+        <v>0.53916339999999996</v>
       </c>
       <c r="F18">
-        <f>5.90205289999994</f>
-        <v>5.9020528999999398</v>
+        <f>0.0986966000000002</f>
+        <v>9.8696600000000204E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -754,16 +754,16 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <f>2.2891469000001</f>
-        <v>2.2891469000000999</v>
+        <f>0.0290169000000002</f>
+        <v>2.9016900000000199E-2</v>
       </c>
       <c r="E19">
-        <f>33.6128690999999</f>
-        <v>33.612869099999898</v>
+        <f>0.543419099999999</f>
+        <v>0.54341909999999904</v>
       </c>
       <c r="F19">
-        <f>5.7127208999999</f>
-        <v>5.7127208999999004</v>
+        <f>0.0968745000000002</f>
+        <v>9.6874500000000197E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <f>2.22833439999999</f>
-        <v>2.2283343999999898</v>
+        <f>0.0318439999999995</f>
+        <v>3.1843999999999498E-2</v>
       </c>
       <c r="E20">
-        <f>32.968655</f>
-        <v>32.968654999999998</v>
+        <f>0.546483</f>
+        <v>0.54648300000000005</v>
       </c>
       <c r="F20">
-        <f>5.77667580000002</f>
-        <v>5.77667580000002</v>
+        <f>0.0960362999999997</f>
+        <v>9.60362999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,16 +797,16 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f>2.23026859999993</f>
-        <v>2.2302685999999299</v>
+        <f>0.2274359</f>
+        <v>0.2274359</v>
       </c>
       <c r="E22">
-        <f>32.6321279999999</f>
-        <v>32.632127999999902</v>
+        <f>3.7829985</f>
+        <v>3.7829985000000002</v>
       </c>
       <c r="F22">
-        <f>5.73131679999994</f>
-        <v>5.7313167999999397</v>
+        <f>0.707418099999999</f>
+        <v>0.70741809999999905</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,16 +817,16 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f>2.22382010000001</f>
-        <v>2.22382010000001</v>
+        <f>0.241205</f>
+        <v>0.241205</v>
       </c>
       <c r="E23">
-        <f>32.6555622999999</f>
-        <v>32.6555622999999</v>
+        <f>4.13050529999999</f>
+        <v>4.1305052999999896</v>
       </c>
       <c r="F23">
-        <f>5.71990620000008</f>
-        <v>5.7199062000000804</v>
+        <f>0.9531597</f>
+        <v>0.95315970000000005</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -837,16 +837,16 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <f>2.21812060000002</f>
-        <v>2.2181206000000202</v>
+        <f>0.242183499999999</f>
+        <v>0.242183499999999</v>
       </c>
       <c r="E24">
-        <f>35.5573921</f>
-        <v>35.557392100000001</v>
+        <f>3.7905374</f>
+        <v>3.7905373999999998</v>
       </c>
       <c r="F24">
-        <f>9.76982989999999</f>
-        <v>9.7698298999999906</v>
+        <f>0.708464799999998</f>
+        <v>0.70846479999999801</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,16 +857,16 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f>3.43975480000005</f>
-        <v>3.43975480000005</v>
+        <f>0.2436672</f>
+        <v>0.2436672</v>
       </c>
       <c r="E25">
-        <f>36.3197594</f>
-        <v>36.319759400000002</v>
+        <f>3.9783541</f>
+        <v>3.9783540999999998</v>
       </c>
       <c r="F25">
-        <f>6.11661499999991</f>
-        <v>6.1166149999999098</v>
+        <f>0.802645599999998</f>
+        <v>0.80264559999999796</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">

--- a/TP1-A21/data_resultat.xlsx
+++ b/TP1-A21/data_resultat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Desktop\Poly\A2021\INF8775\TPs\TP1-A21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE886251-694A-455E-A8D1-6110B7C58601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723AF6-1ACC-4058-9032-1BD0E674BEE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D10583DE-7CAB-4211-8E9D-E4F57287116E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D10583DE-7CAB-4211-8E9D-E4F57287116E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>exemplaire 1</t>
   </si>
@@ -60,13 +60,25 @@
     <t>8x8</t>
   </si>
   <si>
-    <t>Conv</t>
+    <t>StrassenSeuil</t>
   </si>
   <si>
-    <t>Strassen</t>
+    <t>taille</t>
   </si>
   <si>
-    <t>StrassenSeuil</t>
+    <t>Strassen (x^2.80)</t>
+  </si>
+  <si>
+    <t>Conv (x^3)</t>
+  </si>
+  <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t>x^2.80</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -119,6 +131,1287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3562199801226483E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.72854799949537374"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15339976553341148"/>
+                  <c:y val="1.41593759113445E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1590750000000635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69500000000000073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2429750000000324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.631074999999804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>238.62289999999976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2338.8141499999574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0F4-4E6F-8351-41CF5E649124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7638750000000223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.398274999999925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.975624999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537.98214999999948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3920.5988249999973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31111.499325000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0F4-4E6F-8351-41CF5E649124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14957014458772958"/>
+                  <c:y val="-8.1563867016622923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50687500000001728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6863249999999823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2584249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.632549999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>792.92204999999876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5574.0187000000624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0F4-4E6F-8351-41CF5E649124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="819745872"/>
+        <c:axId val="819747536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="819745872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819747536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="819747536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819745872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296CDC3-47A2-4B0B-B8B9-EB15B3FB36B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C2ED4-B490-4C28-B94A-00AAA31F2B2B}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,14 +1723,14 @@
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -445,16 +1738,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,8 +1784,28 @@
         <f>0.000355700000000069</f>
         <v>3.5570000000006898E-4</v>
       </c>
+      <c r="G2">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(D2:D5)*1000</f>
+        <v>0.1590750000000635</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(E2:E5)*1000</f>
+        <v>2.7638750000000223</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(F2:F5)*1000</f>
+        <v>0.50687500000001728</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -496,8 +1824,28 @@
         <f>0.000554500000000013</f>
         <v>5.5450000000001299E-4</v>
       </c>
+      <c r="G3">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(D6:D9)*1000</f>
+        <v>0.69500000000000073</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(E6:E9)*1000</f>
+        <v>13.398274999999925</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(F6:F9)*1000</f>
+        <v>2.6863249999999823</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -516,8 +1864,28 @@
         <f>0.00061409999999995</f>
         <v>6.1409999999995004E-4</v>
       </c>
+      <c r="G4">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(D10:D13)*1000</f>
+        <v>4.2429750000000324</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(E10:E13)*1000</f>
+        <v>84.975624999999994</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(F10:F13)*1000</f>
+        <v>15.2584249999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -536,259 +1904,458 @@
         <f>0.000503200000000037</f>
         <v>5.0320000000003695E-4</v>
       </c>
+      <c r="G5">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(D14:D17)*1000</f>
+        <v>30.631074999999804</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(E14:E17)*1000</f>
+        <v>537.98214999999948</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(F14:F17)*1000</f>
+        <v>97.632549999999995</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>0.000640999999999891</f>
+        <v>6.4099999999989101E-4</v>
+      </c>
+      <c r="E6">
+        <f>0.0149292999999999</f>
+        <v>1.4929299999999901E-2</v>
+      </c>
+      <c r="F6">
+        <f>0.00240459999999997</f>
+        <v>2.4045999999999699E-3</v>
+      </c>
+      <c r="G6">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(D18:D21)*1000</f>
+        <v>238.62289999999976</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(E18:E21)*1000</f>
+        <v>3920.5988249999973</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(F18:F21)*1000</f>
+        <v>792.92204999999876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <f>0.000640999999999891</f>
-        <v>6.4099999999989101E-4</v>
+        <f>0.000795900000000182</f>
+        <v>7.9590000000018203E-4</v>
       </c>
       <c r="E7">
-        <f>0.0149292999999999</f>
-        <v>1.4929299999999901E-2</v>
+        <f>0.0132726999999999</f>
+        <v>1.32726999999999E-2</v>
       </c>
       <c r="F7">
-        <f>0.00240459999999997</f>
-        <v>2.4045999999999699E-3</v>
+        <f>0.00232900000000002</f>
+        <v>2.3290000000000199E-3</v>
+      </c>
+      <c r="G7">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f>8</f>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(D22:D25)*1000</f>
+        <v>2338.8141499999574</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(E22:E25)*1000</f>
+        <v>31111.499325000001</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(F22:F25)*1000</f>
+        <v>5574.0187000000624</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <f>0.000795900000000182</f>
-        <v>7.9590000000018203E-4</v>
+        <f>0.000639599999999962</f>
+        <v>6.3959999999996199E-4</v>
       </c>
       <c r="E8">
-        <f>0.0132726999999999</f>
-        <v>1.32726999999999E-2</v>
+        <f>0.0117992999999998</f>
+        <v>1.1799299999999799E-2</v>
       </c>
       <c r="F8">
-        <f>0.00232900000000002</f>
-        <v>2.3290000000000199E-3</v>
+        <f>0.00385900000000005</f>
+        <v>3.8590000000000499E-3</v>
+      </c>
+      <c r="G8">
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <f>0.000639599999999962</f>
-        <v>6.3959999999996199E-4</v>
+        <f>0.000703499999999968</f>
+        <v>7.0349999999996804E-4</v>
       </c>
       <c r="E9">
-        <f>0.0117992999999998</f>
-        <v>1.1799299999999799E-2</v>
+        <f>0.0135918000000001</f>
+        <v>1.35918000000001E-2</v>
       </c>
       <c r="F9">
-        <f>0.00385900000000005</f>
-        <v>3.8590000000000499E-3</v>
+        <f>0.00215269999999989</f>
+        <v>2.1526999999998899E-3</v>
+      </c>
+      <c r="G9">
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <f>0.000703499999999968</f>
-        <v>7.0349999999996804E-4</v>
+        <f>0.00374819999999997</f>
+        <v>3.7481999999999698E-3</v>
       </c>
       <c r="E10">
-        <f>0.0135918000000001</f>
-        <v>1.35918000000001E-2</v>
+        <f>0.0860815999999999</f>
+        <v>8.6081599999999897E-2</v>
       </c>
       <c r="F10">
-        <f>0.00215269999999989</f>
-        <v>2.1526999999998899E-3</v>
+        <f>0.0157905999999998</f>
+        <v>1.5790599999999801E-2</v>
+      </c>
+      <c r="G10">
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>0.00349830000000017</f>
+        <v>3.4983000000001702E-3</v>
+      </c>
+      <c r="E11">
+        <f>0.0852519</f>
+        <v>8.5251900000000005E-2</v>
+      </c>
+      <c r="F11">
+        <f>0.0145196</f>
+        <v>1.4519600000000001E-2</v>
+      </c>
+      <c r="G11">
+        <f>5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <f>0.00374819999999997</f>
-        <v>3.7481999999999698E-3</v>
+        <f>0.00408509999999995</f>
+        <v>4.0850999999999501E-3</v>
       </c>
       <c r="E12">
-        <f>0.0860815999999999</f>
-        <v>8.6081599999999897E-2</v>
+        <f>0.0805109000000001</f>
+        <v>8.0510900000000094E-2</v>
       </c>
       <c r="F12">
-        <f>0.0157905999999998</f>
-        <v>1.5790599999999801E-2</v>
+        <f>0.0159986999999999</f>
+        <v>1.5998699999999901E-2</v>
+      </c>
+      <c r="G12">
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <f>0.00349830000000017</f>
-        <v>3.4983000000001702E-3</v>
+        <f>0.00564030000000004</f>
+        <v>5.6403000000000399E-3</v>
       </c>
       <c r="E13">
-        <f>0.0852519</f>
-        <v>8.5251900000000005E-2</v>
+        <f>0.0880581</f>
+        <v>8.80581E-2</v>
       </c>
       <c r="F13">
-        <f>0.0145196</f>
-        <v>1.4519600000000001E-2</v>
+        <f>0.0147247999999999</f>
+        <v>1.4724799999999901E-2</v>
+      </c>
+      <c r="G13">
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f>0.00408509999999995</f>
-        <v>4.0850999999999501E-3</v>
+        <f>0.0339755999999997</f>
+        <v>3.3975599999999703E-2</v>
       </c>
       <c r="E14">
-        <f>0.0805109000000001</f>
-        <v>8.0510900000000094E-2</v>
+        <f>0.522863099999999</f>
+        <v>0.52286309999999903</v>
       </c>
       <c r="F14">
-        <f>0.0159986999999999</f>
-        <v>1.5998699999999901E-2</v>
+        <f>0.0989227999999999</f>
+        <v>9.8922799999999894E-2</v>
+      </c>
+      <c r="G14">
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <f>0.00564030000000004</f>
-        <v>5.6403000000000399E-3</v>
+        <f>0.0276877999999998</f>
+        <v>2.7687799999999801E-2</v>
       </c>
       <c r="E15">
-        <f>0.0880581</f>
-        <v>8.80581E-2</v>
+        <f>0.5391634</f>
+        <v>0.53916339999999996</v>
       </c>
       <c r="F15">
-        <f>0.0147247999999999</f>
-        <v>1.4724799999999901E-2</v>
+        <f>0.0986966000000002</f>
+        <v>9.8696600000000204E-2</v>
+      </c>
+      <c r="G15">
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <f>0.0290169000000002</f>
+        <v>2.9016900000000199E-2</v>
+      </c>
+      <c r="E16">
+        <f>0.543419099999999</f>
+        <v>0.54341909999999904</v>
+      </c>
+      <c r="F16">
+        <f>0.0968745000000002</f>
+        <v>9.6874500000000197E-2</v>
+      </c>
+      <c r="G16">
+        <f>6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <f>0.0339755999999997</f>
-        <v>3.3975599999999703E-2</v>
+        <f>0.0318439999999995</f>
+        <v>3.1843999999999498E-2</v>
       </c>
       <c r="E17">
-        <f>0.522863099999999</f>
-        <v>0.52286309999999903</v>
+        <f>0.546483</f>
+        <v>0.54648300000000005</v>
       </c>
       <c r="F17">
-        <f>0.0989227999999999</f>
-        <v>9.8922799999999894E-2</v>
+        <f>0.0960362999999997</f>
+        <v>9.60362999999997E-2</v>
+      </c>
+      <c r="G17">
+        <f>6</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <f>0.0276877999999998</f>
-        <v>2.7687799999999801E-2</v>
+        <f>0.2274359</f>
+        <v>0.2274359</v>
       </c>
       <c r="E18">
-        <f>0.5391634</f>
-        <v>0.53916339999999996</v>
+        <f>3.7829985</f>
+        <v>3.7829985000000002</v>
       </c>
       <c r="F18">
-        <f>0.0986966000000002</f>
-        <v>9.8696600000000204E-2</v>
+        <f>0.707418099999999</f>
+        <v>0.70741809999999905</v>
+      </c>
+      <c r="G18">
+        <f>7</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <f>0.0290169000000002</f>
-        <v>2.9016900000000199E-2</v>
+        <f>0.241205</f>
+        <v>0.241205</v>
       </c>
       <c r="E19">
-        <f>0.543419099999999</f>
-        <v>0.54341909999999904</v>
+        <f>4.13050529999999</f>
+        <v>4.1305052999999896</v>
       </c>
       <c r="F19">
-        <f>0.0968745000000002</f>
-        <v>9.6874500000000197E-2</v>
+        <f>0.9531597</f>
+        <v>0.95315970000000005</v>
+      </c>
+      <c r="G19">
+        <f>7</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f>0.242183499999999</f>
+        <v>0.242183499999999</v>
+      </c>
+      <c r="E20">
+        <f>3.7905374</f>
+        <v>3.7905373999999998</v>
+      </c>
+      <c r="F20">
+        <f>0.708464799999998</f>
+        <v>0.70846479999999801</v>
+      </c>
+      <c r="G20">
+        <f>7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D20">
-        <f>0.0318439999999995</f>
-        <v>3.1843999999999498E-2</v>
-      </c>
-      <c r="E20">
-        <f>0.546483</f>
-        <v>0.54648300000000005</v>
-      </c>
-      <c r="F20">
-        <f>0.0960362999999997</f>
-        <v>9.60362999999997E-2</v>
+      <c r="D21">
+        <f>0.2436672</f>
+        <v>0.2436672</v>
+      </c>
+      <c r="E21">
+        <f>3.9783541</f>
+        <v>3.9783540999999998</v>
+      </c>
+      <c r="F21">
+        <f>0.802645599999998</f>
+        <v>0.80264559999999796</v>
+      </c>
+      <c r="G21">
+        <f>7</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -797,19 +2364,23 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f>0.2274359</f>
-        <v>0.2274359</v>
+        <f>2.31770320000009</f>
+        <v>2.3177032000000901</v>
       </c>
       <c r="E22">
-        <f>3.7829985</f>
-        <v>3.7829985000000002</v>
+        <f>34.7141072000001</f>
+        <v>34.7141072000001</v>
       </c>
       <c r="F22">
-        <f>0.707418099999999</f>
-        <v>0.70741809999999905</v>
+        <f>6.11145050000004</f>
+        <v>6.1114505000000401</v>
+      </c>
+      <c r="G22">
+        <f>8</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>0</v>
       </c>
@@ -817,19 +2388,23 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <f>0.241205</f>
-        <v>0.241205</v>
+        <f>2.64596959999994</f>
+        <v>2.64596959999994</v>
       </c>
       <c r="E23">
-        <f>4.13050529999999</f>
-        <v>4.1305052999999896</v>
+        <f>31.2085094999999</f>
+        <v>31.208509499999899</v>
       </c>
       <c r="F23">
-        <f>0.9531597</f>
-        <v>0.95315970000000005</v>
+        <f>5.53291820000004</f>
+        <v>5.5329182000000401</v>
+      </c>
+      <c r="G23">
+        <f>8</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -837,19 +2412,23 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <f>0.242183499999999</f>
-        <v>0.242183499999999</v>
+        <f>1.97888179999995</f>
+        <v>1.97888179999995</v>
       </c>
       <c r="E24">
-        <f>3.7905374</f>
-        <v>3.7905373999999998</v>
+        <f>28.6224326999999</f>
+        <v>28.622432699999901</v>
       </c>
       <c r="F24">
-        <f>0.708464799999998</f>
-        <v>0.70846479999999801</v>
+        <f>5.20643470000004</f>
+        <v>5.2064347000000399</v>
+      </c>
+      <c r="G24">
+        <f>8</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
@@ -857,102 +2436,24 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <f>0.2436672</f>
-        <v>0.2436672</v>
-      </c>
-      <c r="E25">
-        <f>3.9783541</f>
-        <v>3.9783540999999998</v>
-      </c>
-      <c r="F25">
-        <f>0.802645599999998</f>
-        <v>0.80264559999999796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f>2.31770320000009</f>
-        <v>2.3177032000000901</v>
-      </c>
-      <c r="E27">
-        <f>34.7141072000001</f>
-        <v>34.7141072000001</v>
-      </c>
-      <c r="F27">
-        <f>6.11145050000004</f>
-        <v>6.1114505000000401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <f>2.64596959999994</f>
-        <v>2.64596959999994</v>
-      </c>
-      <c r="E28">
-        <f>31.2085094999999</f>
-        <v>31.208509499999899</v>
-      </c>
-      <c r="F28">
-        <f>5.53291820000004</f>
-        <v>5.5329182000000401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <f>1.97888179999995</f>
-        <v>1.97888179999995</v>
-      </c>
-      <c r="E29">
-        <f>28.6224326999999</f>
-        <v>28.622432699999901</v>
-      </c>
-      <c r="F29">
-        <f>5.20643470000004</f>
-        <v>5.2064347000000399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
         <f>2.41270199999985</f>
         <v>2.4127019999998498</v>
       </c>
-      <c r="E30">
+      <c r="E25">
         <f>29.9009479000001</f>
         <v>29.900947900000101</v>
       </c>
-      <c r="F30">
+      <c r="F25">
         <f>5.44527140000013</f>
         <v>5.4452714000001299</v>
+      </c>
+      <c r="G25">
+        <f>8</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP1-A21/data_resultat.xlsx
+++ b/TP1-A21/data_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Desktop\Poly\A2021\INF8775\TPs\TP1-A21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723AF6-1ACC-4058-9032-1BD0E674BEE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582CC48-7DD0-49AA-9905-CC1FC531E587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D10583DE-7CAB-4211-8E9D-E4F57287116E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>exemplaire 1</t>
   </si>
@@ -72,13 +72,10 @@
     <t>Conv (x^3)</t>
   </si>
   <si>
-    <t>x^3</t>
+    <t>average</t>
   </si>
   <si>
-    <t>x^2.80</t>
-  </si>
-  <si>
-    <t>average</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -114,8 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,10 +183,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3562199801226483E-2"/>
+          <c:x val="8.3055667015812296E-2"/>
           <c:y val="0.17171296296296296"/>
-          <c:w val="0.72854799949537374"/>
-          <c:h val="0.61498432487605714"/>
+          <c:w val="0.76066813620501272"/>
+          <c:h val="0.55016951006124248"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -234,8 +233,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15339976553341148"/>
-                  <c:y val="1.41593759113445E-2"/>
+                  <c:x val="0.19726954216758644"/>
+                  <c:y val="-1.3618401866433363E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -270,34 +269,34 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -325,7 +324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0F4-4E6F-8351-41CF5E649124}"/>
+              <c16:uniqueId val="{00000000-8702-4509-8CB8-50219E00A698}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -400,34 +399,34 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -455,7 +454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0F4-4E6F-8351-41CF5E649124}"/>
+              <c16:uniqueId val="{00000001-8702-4509-8CB8-50219E00A698}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -500,8 +499,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14957014458772958"/>
-                  <c:y val="-8.1563867016622923E-2"/>
+                  <c:x val="0.19065140848128598"/>
+                  <c:y val="-5.7362569262175561E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -536,34 +535,34 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -591,7 +590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A0F4-4E6F-8351-41CF5E649124}"/>
+              <c16:uniqueId val="{00000002-8702-4509-8CB8-50219E00A698}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -603,15 +602,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="819745872"/>
-        <c:axId val="819747536"/>
+        <c:axId val="819754608"/>
+        <c:axId val="819750448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="819745872"/>
+        <c:axId val="819754608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
-          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -666,16 +663,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819747536"/>
+        <c:crossAx val="819750448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="819747536"/>
+        <c:axId val="819750448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -730,7 +725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819745872"/>
+        <c:crossAx val="819754608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -744,6 +739,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20607148626606983"/>
+          <c:y val="0.80902668416447965"/>
+          <c:w val="0.58785702746786039"/>
+          <c:h val="0.16319553805774281"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1377,23 +1382,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1055370</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296CDC3-47A2-4B0B-B8B9-EB15B3FB36B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466DA5B5-3418-4910-A56D-3301317BC28A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C2ED4-B490-4C28-B94A-00AAA31F2B2B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1728,9 +1733,12 @@
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1750,19 +1758,16 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1785,27 +1790,30 @@
         <v>3.5570000000006898E-4</v>
       </c>
       <c r="G2">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <f>3</f>
-        <v>3</v>
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>1.40100000000004E-4</v>
       </c>
       <c r="K2">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
         <f>AVERAGE(D2:D5)*1000</f>
         <v>0.1590750000000635</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="1">
         <f>AVERAGE(E2:E5)*1000</f>
         <v>2.7638750000000223</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1">
         <f>AVERAGE(F2:F5)*1000</f>
         <v>0.50687500000001728</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1825,27 +1833,30 @@
         <v>5.5450000000001299E-4</v>
       </c>
       <c r="G3">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <f>4</f>
-        <v>4</v>
+        <f t="shared" ref="G3:G9" si="0">2^3</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9.1399999999991407E-5</v>
       </c>
       <c r="K3">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(D6:D9)*1000</f>
         <v>0.69500000000000073</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="1">
         <f>AVERAGE(E6:E9)*1000</f>
         <v>13.398274999999925</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="1">
         <f>AVERAGE(F6:F9)*1000</f>
         <v>2.6863249999999823</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1865,27 +1876,30 @@
         <v>6.1409999999995004E-4</v>
       </c>
       <c r="G4">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <f>5</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>1.11699999999992E-4</v>
       </c>
       <c r="K4">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="L4" s="1">
         <f>AVERAGE(D10:D13)*1000</f>
         <v>4.2429750000000324</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="1">
         <f>AVERAGE(E10:E13)*1000</f>
         <v>84.975624999999994</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="1">
         <f>AVERAGE(F10:F13)*1000</f>
         <v>15.2584249999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1905,27 +1919,30 @@
         <v>5.0320000000003695E-4</v>
       </c>
       <c r="G5">
-        <f>3</f>
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <f>6</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1.17499999999992E-4</v>
       </c>
       <c r="K5">
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="L5" s="1">
         <f>AVERAGE(D14:D17)*1000</f>
         <v>30.631074999999804</v>
       </c>
-      <c r="L5">
+      <c r="M5" s="1">
         <f>AVERAGE(E14:E17)*1000</f>
         <v>537.98214999999948</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="1">
         <f>AVERAGE(F14:F17)*1000</f>
         <v>97.632549999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1948,27 +1965,30 @@
         <v>2.4045999999999699E-3</v>
       </c>
       <c r="G6">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <f>7</f>
-        <v>7</v>
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>5.0829999999998899E-4</v>
       </c>
       <c r="K6">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="L6" s="1">
         <f>AVERAGE(D18:D21)*1000</f>
         <v>238.62289999999976</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="1">
         <f>AVERAGE(E18:E21)*1000</f>
         <v>3920.5988249999973</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="1">
         <f>AVERAGE(F18:F21)*1000</f>
         <v>792.92204999999876</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1988,27 +2008,30 @@
         <v>2.3290000000000199E-3</v>
       </c>
       <c r="G7">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <f>8</f>
-        <v>8</v>
+        <f t="shared" ref="G7:G25" si="1">2^4</f>
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>5.8289999999999698E-4</v>
       </c>
       <c r="K7">
+        <f>2^8</f>
+        <v>256</v>
+      </c>
+      <c r="L7" s="1">
         <f>AVERAGE(D22:D25)*1000</f>
         <v>2338.8141499999574</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="1">
         <f>AVERAGE(E22:E25)*1000</f>
         <v>31111.499325000001</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="1">
         <f>AVERAGE(F22:F25)*1000</f>
         <v>5574.0187000000624</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2028,11 +2051,14 @@
         <v>3.8590000000000499E-3</v>
       </c>
       <c r="G8">
-        <f>4</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>6.9489999999999797E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2052,11 +2078,14 @@
         <v>2.1526999999998899E-3</v>
       </c>
       <c r="G9">
-        <f>4</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>5.4869999999998499E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2079,11 +2108,14 @@
         <v>1.5790599999999801E-2</v>
       </c>
       <c r="G10">
-        <f>5</f>
-        <v>5</v>
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>4.5049999999999804E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2103,11 +2135,14 @@
         <v>1.4519600000000001E-2</v>
       </c>
       <c r="G11">
-        <f>5</f>
-        <v>5</v>
+        <f t="shared" ref="G11:G13" si="2">2^5</f>
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>3.7412999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -2127,11 +2162,14 @@
         <v>1.5998699999999901E-2</v>
       </c>
       <c r="G12">
-        <f>5</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>4.2339000000000101E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2151,11 +2189,14 @@
         <v>1.4724799999999901E-2</v>
       </c>
       <c r="G13">
-        <f>5</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>4.8226999999999801E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2178,11 +2219,14 @@
         <v>9.8922799999999894E-2</v>
       </c>
       <c r="G14">
-        <f>6</f>
-        <v>6</v>
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="H14">
+        <v>3.7953500000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
@@ -2202,11 +2246,14 @@
         <v>9.8696600000000204E-2</v>
       </c>
       <c r="G15">
-        <f>6</f>
-        <v>6</v>
+        <f t="shared" ref="G15:G17" si="3">2^6</f>
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>3.4833599999999902E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2226,11 +2273,14 @@
         <v>9.6874500000000197E-2</v>
       </c>
       <c r="G16">
-        <f>6</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>3.2136199999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0</v>
       </c>
@@ -2250,11 +2300,14 @@
         <v>9.60362999999997E-2</v>
       </c>
       <c r="G17">
-        <f>6</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>3.2475099999999903E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2277,11 +2330,14 @@
         <v>0.70741809999999905</v>
       </c>
       <c r="G18">
-        <f>7</f>
-        <v>7</v>
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="H18">
+        <v>0.26558910000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
@@ -2301,11 +2357,14 @@
         <v>0.95315970000000005</v>
       </c>
       <c r="G19">
-        <f>7</f>
-        <v>7</v>
+        <f t="shared" ref="G19:G21" si="4">2^7</f>
+        <v>128</v>
+      </c>
+      <c r="H19">
+        <v>0.24426979999999901</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>0</v>
       </c>
@@ -2325,11 +2384,14 @@
         <v>0.70846479999999801</v>
       </c>
       <c r="G20">
-        <f>7</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="H20">
+        <v>0.228881099999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2349,11 +2411,14 @@
         <v>0.80264559999999796</v>
       </c>
       <c r="G21">
-        <f>7</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="H21">
+        <v>0.24522549999999901</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2376,11 +2441,14 @@
         <v>6.1114505000000401</v>
       </c>
       <c r="G22">
-        <f>8</f>
-        <v>8</v>
+        <f>2^8</f>
+        <v>256</v>
+      </c>
+      <c r="H22">
+        <v>1.9275545999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>0</v>
       </c>
@@ -2400,11 +2468,14 @@
         <v>5.5329182000000401</v>
       </c>
       <c r="G23">
-        <f>8</f>
-        <v>8</v>
+        <f t="shared" ref="G23:G25" si="5">2^8</f>
+        <v>256</v>
+      </c>
+      <c r="H23">
+        <v>2.0025084999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -2424,11 +2495,14 @@
         <v>5.2064347000000399</v>
       </c>
       <c r="G24">
-        <f>8</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="H24">
+        <v>2.0071361999999899</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2448,8 +2522,11 @@
         <v>5.4452714000001299</v>
       </c>
       <c r="G25">
-        <f>8</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="H25">
+        <v>1.8393386999999899</v>
       </c>
     </row>
   </sheetData>

--- a/TP1-A21/data_resultat.xlsx
+++ b/TP1-A21/data_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Desktop\Poly\A2021\INF8775\TPs\TP1-A21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582CC48-7DD0-49AA-9905-CC1FC531E587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53F4DF-E04C-4A1C-872A-D32A83706C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D10583DE-7CAB-4211-8E9D-E4F57287116E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>exemplaire 1</t>
   </si>
@@ -72,10 +72,25 @@
     <t>Conv (x^3)</t>
   </si>
   <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t>x^2.80</t>
+  </si>
+  <si>
     <t>average</t>
   </si>
   <si>
+    <t>log taille</t>
+  </si>
+  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>y/f(x)</t>
+  </si>
+  <si>
+    <t>log average</t>
   </si>
 </sst>
 </file>
@@ -147,6 +162,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test du rapport: Conventionnel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -178,26 +218,21 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.3055667015812296E-2"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.76066813620501272"/>
-          <c:h val="0.55016951006124248"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>conv</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -217,56 +252,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19726954216758644"/>
-                  <c:y val="-1.3618401866433363E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$2:$K$7</c:f>
@@ -296,305 +281,40 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:f>Sheet1!$V$2:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1590750000000635</c:v>
+                  <c:v>3.1069335937512402E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69500000000000073</c:v>
+                  <c:v>1.6967773437500018E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2429750000000324</c:v>
+                  <c:v>1.2948532104492286E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.631074999999804</c:v>
+                  <c:v>1.1684827804565355E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238.62289999999976</c:v>
+                  <c:v>1.1378426551818836E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2338.8141499999574</c:v>
+                  <c:v>1.3940418660640463E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8702-4509-8CB8-50219E00A698}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.7638750000000223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.398274999999925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>84.975624999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>537.98214999999948</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3920.5988249999973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31111.499325000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8702-4509-8CB8-50219E00A698}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.19065140848128598"/>
-                  <c:y val="-5.7362569262175561E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50687500000001728</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6863249999999823</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.2584249999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.632549999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>792.92204999999876</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5574.0187000000624</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8702-4509-8CB8-50219E00A698}"/>
+              <c16:uniqueId val="{00000000-1E9E-42AE-8047-6A94E7C66D46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -602,11 +322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="819754608"/>
-        <c:axId val="819750448"/>
+        <c:axId val="726966272"/>
+        <c:axId val="726961280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="819754608"/>
+        <c:axId val="726966272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,6 +346,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Tail</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t>le des matrices</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -663,12 +443,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819750448"/>
+        <c:crossAx val="726961280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="819750448"/>
+        <c:axId val="726961280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,6 +468,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Rapport y/f(x)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t> f(x)=x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -725,7 +573,3474 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819754608"/>
+        <c:crossAx val="726966272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test du rapport: Strassen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>strassen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.1821311040311817E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6952518791241816E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1865005493164085E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7148072107144837E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9336063046974375E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6214588804101521E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BC7-4DC2-9547-D290A6D00FB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="850710704"/>
+        <c:axId val="819745872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="850710704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Taille des matrices</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819745872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="819745872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Rapport y/f(x)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> f(x)=x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850710704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test du rapport: Strassen avec seuil</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>strassenSeuil</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8999023437503376E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5584106445312068E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6565017700195006E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7243862152099607E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.780946969985956E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3223740458488836E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E3A8-4B09-B82F-CBD846C3EAC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="819755024"/>
+        <c:axId val="678090368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="819755024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Taille des matrices</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678090368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678090368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Rapport y/f(x) </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>f(x)=x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2.80</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819755024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test des constantes: Conventionnel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15096091071856269"/>
+          <c:y val="0.17378178468299524"/>
+          <c:w val="0.78164157204827167"/>
+          <c:h val="0.70343691282521625"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>conv const</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10285604444827817"/>
+                  <c:y val="-1.9163318936464044E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16777216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1590750000000635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69500000000000073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2429750000000324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.631074999999804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>238.62289999999976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2338.8141499999574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-358A-4715-A4D5-C0A525B12EF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="819777072"/>
+        <c:axId val="819771664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="819777072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>f(x)=</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819771664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="819771664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Temps </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>d'exécution (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819777072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test des constantes: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strassen </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>strassen const</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6864789894574218E-2"/>
+                  <c:y val="4.2602996254681646E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>337.79402515786057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2352.5342310339256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16383.999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114104.80343234935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>794672.00722260214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5534417.3081863848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7638750000000223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.398274999999925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.975624999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537.98214999999948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3920.5988249999973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31111.499325000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E5-44DC-B5B0-252217901E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="616214176"/>
+        <c:axId val="616213760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="616214176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>f(x)=x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2.80</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616213760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="616213760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>d'exécution (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616214176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test des constantes: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Strassen avec seuil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>strassen seuil const</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9411850589670633E-2"/>
+                  <c:y val="-9.7925028306136454E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16777216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50687500000001728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6863249999999823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2584249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.632549999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>792.92204999999876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5574.0187000000624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B364-4E92-AB90-D5EBFADE8D77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="723883536"/>
+        <c:axId val="723894352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="723883536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>f(x)=x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723894352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723894352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>d'exécution (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723883536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Test de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> puissance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Conventionnel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2189053335925602"/>
+                  <c:y val="-1.8999708369787109E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8061799739838871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1072099696478683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4082399653118496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.79839806809156477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15801519540988565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62767047287101851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4861622386732232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3777121194114659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3689957126871852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5296-46CE-95C6-FB5567F5BE5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Strassen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2189053335925602"/>
+                  <c:y val="-2.3564814814814816E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8061799739838871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1072099696478683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4082399653118496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4415183975886271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1270488874539486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9292943675246235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7307678662145167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.593352405421244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4929209411274673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5296-46CE-95C6-FB5567F5BE5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Strassen avec seuil</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22806171219338323"/>
+                  <c:y val="-2.1750145815106446E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8061799739838871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1072099696478683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4082399653118496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.29509912844475394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42915855381599588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1835097073337799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9895946325094722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8992304951122811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7461684213728388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5296-46CE-95C6-FB5567F5BE5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1064245600"/>
+        <c:axId val="1064260160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1064245600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>(taille</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> des matrices)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064260160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1064260160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>(temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> d'exécution en ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064245600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -738,15 +4053,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20607148626606983"/>
-          <c:y val="0.80902668416447965"/>
-          <c:w val="0.58785702746786039"/>
-          <c:h val="0.16319553805774281"/>
+          <c:x val="0.63728729300709686"/>
+          <c:y val="0.40472039953339167"/>
+          <c:w val="0.34089762985375688"/>
+          <c:h val="0.46875328083989504"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -862,6 +4177,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1378,27 +4933,3123 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1055370</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>37919</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1041582</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>134983</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466DA5B5-3418-4910-A56D-3301317BC28A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC432F3-D924-497B-829B-77F7193B3EA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,6 +8062,222 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D72CE2-DE99-4F26-ADB3-4E66D8DB3716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD0EB71-4B8A-4FC4-9564-549C930B82D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40277</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1041763</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E30A967-7D91-480A-81CB-D6B695668712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930F274E-504B-4968-908E-5911ED2038A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49477BE-66E6-41A6-91B3-57E0849CE8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A0EB6E-BA34-42AE-907D-B21249201F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1716,10 +8583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C2ED4-B490-4C28-B94A-00AAA31F2B2B}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,7 +8605,7 @@
     <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1758,16 +8625,40 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>12</v>
       </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1812,8 +8703,48 @@
         <f>AVERAGE(F2:F5)*1000</f>
         <v>0.50687500000001728</v>
       </c>
+      <c r="O2">
+        <f>LOG(K2)</f>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="P2">
+        <f>LOG(L2)</f>
+        <v>-0.79839806809156477</v>
+      </c>
+      <c r="Q2">
+        <f>LOG(M2)</f>
+        <v>0.4415183975886271</v>
+      </c>
+      <c r="R2">
+        <f>LOG(N2)</f>
+        <v>-0.29509912844475394</v>
+      </c>
+      <c r="U2">
+        <f>K2^3</f>
+        <v>512</v>
+      </c>
+      <c r="V2">
+        <f>L2/U2</f>
+        <v>3.1069335937512402E-4</v>
+      </c>
+      <c r="W2">
+        <f>K2^2.8</f>
+        <v>337.79402515786057</v>
+      </c>
+      <c r="X2">
+        <f>M2/W2</f>
+        <v>8.1821311040311817E-3</v>
+      </c>
+      <c r="Y2">
+        <f>K2^3</f>
+        <v>512</v>
+      </c>
+      <c r="Z2">
+        <f>N2/Y2</f>
+        <v>9.8999023437503376E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1855,8 +8786,48 @@
         <f>AVERAGE(F6:F9)*1000</f>
         <v>2.6863249999999823</v>
       </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="1">LOG(K3)</f>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="2">LOG(L3)</f>
+        <v>-0.15801519540988565</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="3">LOG(M3)</f>
+        <v>1.1270488874539486</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="4">LOG(N3)</f>
+        <v>0.42915855381599588</v>
+      </c>
+      <c r="U3">
+        <f>K3^3</f>
+        <v>4096</v>
+      </c>
+      <c r="V3">
+        <f>L3/U3</f>
+        <v>1.6967773437500018E-4</v>
+      </c>
+      <c r="W3">
+        <f>K3^2.8</f>
+        <v>2352.5342310339256</v>
+      </c>
+      <c r="X3">
+        <f>M3/W3</f>
+        <v>5.6952518791241816E-3</v>
+      </c>
+      <c r="Y3">
+        <f>K3^3</f>
+        <v>4096</v>
+      </c>
+      <c r="Z3">
+        <f>N3/Y3</f>
+        <v>6.5584106445312068E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1898,8 +8869,48 @@
         <f>AVERAGE(F10:F13)*1000</f>
         <v>15.2584249999999</v>
       </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0.62767047287101851</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>1.9292943675246235</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>1.1835097073337799</v>
+      </c>
+      <c r="U4">
+        <f>K4^3</f>
+        <v>32768</v>
+      </c>
+      <c r="V4">
+        <f>L4/U4</f>
+        <v>1.2948532104492286E-4</v>
+      </c>
+      <c r="W4">
+        <f>K4^2.8</f>
+        <v>16383.999999999991</v>
+      </c>
+      <c r="X4">
+        <f>M4/W4</f>
+        <v>5.1865005493164085E-3</v>
+      </c>
+      <c r="Y4">
+        <f>K4^3</f>
+        <v>32768</v>
+      </c>
+      <c r="Z4">
+        <f>N4/Y4</f>
+        <v>4.6565017700195006E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1941,8 +8952,48 @@
         <f>AVERAGE(F14:F17)*1000</f>
         <v>97.632549999999995</v>
       </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>1.4861622386732232</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>2.7307678662145167</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>1.9895946325094722</v>
+      </c>
+      <c r="U5">
+        <f>K5^3</f>
+        <v>262144</v>
+      </c>
+      <c r="V5">
+        <f>L5/U5</f>
+        <v>1.1684827804565355E-4</v>
+      </c>
+      <c r="W5">
+        <f>K5^2.8</f>
+        <v>114104.80343234935</v>
+      </c>
+      <c r="X5">
+        <f>M5/W5</f>
+        <v>4.7148072107144837E-3</v>
+      </c>
+      <c r="Y5">
+        <f>K5^3</f>
+        <v>262144</v>
+      </c>
+      <c r="Z5">
+        <f>N5/Y5</f>
+        <v>3.7243862152099607E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +9038,48 @@
         <f>AVERAGE(F18:F21)*1000</f>
         <v>792.92204999999876</v>
       </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>2.1072099696478683</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>2.3777121194114659</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>3.593352405421244</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>2.8992304951122811</v>
+      </c>
+      <c r="U6">
+        <f>K6^3</f>
+        <v>2097152</v>
+      </c>
+      <c r="V6">
+        <f>L6/U6</f>
+        <v>1.1378426551818836E-4</v>
+      </c>
+      <c r="W6">
+        <f>K6^2.8</f>
+        <v>794672.00722260214</v>
+      </c>
+      <c r="X6">
+        <f>M6/W6</f>
+        <v>4.9336063046974375E-3</v>
+      </c>
+      <c r="Y6">
+        <f>K6^3</f>
+        <v>2097152</v>
+      </c>
+      <c r="Z6">
+        <f>N6/Y6</f>
+        <v>3.780946969985956E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0</v>
       </c>
@@ -2008,7 +9099,7 @@
         <v>2.3290000000000199E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G25" si="1">2^4</f>
+        <f t="shared" ref="G7:G25" si="5">2^4</f>
         <v>16</v>
       </c>
       <c r="H7">
@@ -2030,8 +9121,48 @@
         <f>AVERAGE(F22:F25)*1000</f>
         <v>5574.0187000000624</v>
       </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>3.3689957126871852</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>4.4929209411274673</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>3.7461684213728388</v>
+      </c>
+      <c r="U7">
+        <f>K7^3</f>
+        <v>16777216</v>
+      </c>
+      <c r="V7">
+        <f>L7/U7</f>
+        <v>1.3940418660640463E-4</v>
+      </c>
+      <c r="W7">
+        <f>K7^2.8</f>
+        <v>5534417.3081863848</v>
+      </c>
+      <c r="X7">
+        <f>M7/W7</f>
+        <v>5.6214588804101521E-3</v>
+      </c>
+      <c r="Y7">
+        <f>K7^3</f>
+        <v>16777216</v>
+      </c>
+      <c r="Z7">
+        <f>N7/Y7</f>
+        <v>3.3223740458488836E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2051,14 +9182,14 @@
         <v>3.8590000000000499E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H8">
         <v>6.9489999999999797E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2078,14 +9209,14 @@
         <v>2.1526999999998899E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H9">
         <v>5.4869999999998499E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2115,7 +9246,7 @@
         <v>4.5049999999999804E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2135,14 +9266,14 @@
         <v>1.4519600000000001E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G13" si="2">2^5</f>
+        <f t="shared" ref="G11:G13" si="6">2^5</f>
         <v>32</v>
       </c>
       <c r="H11">
         <v>3.7412999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -2162,14 +9293,14 @@
         <v>1.5998699999999901E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="H12">
         <v>4.2339000000000101E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2189,14 +9320,14 @@
         <v>1.4724799999999901E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="H13">
         <v>4.8226999999999801E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +9357,7 @@
         <v>3.7953500000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
@@ -2246,14 +9377,14 @@
         <v>9.8696600000000204E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G17" si="3">2^6</f>
+        <f t="shared" ref="G15:G17" si="7">2^6</f>
         <v>64</v>
       </c>
       <c r="H15">
         <v>3.4833599999999902E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0</v>
       </c>
@@ -2273,7 +9404,7 @@
         <v>9.6874500000000197E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="H16">
@@ -2300,7 +9431,7 @@
         <v>9.60362999999997E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="H17">
@@ -2357,7 +9488,7 @@
         <v>0.95315970000000005</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G21" si="4">2^7</f>
+        <f t="shared" ref="G19:G21" si="8">2^7</f>
         <v>128</v>
       </c>
       <c r="H19">
@@ -2384,7 +9515,7 @@
         <v>0.70846479999999801</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="H20">
@@ -2411,7 +9542,7 @@
         <v>0.80264559999999796</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="H21">
@@ -2468,7 +9599,7 @@
         <v>5.5329182000000401</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G25" si="5">2^8</f>
+        <f t="shared" ref="G23:G25" si="9">2^8</f>
         <v>256</v>
       </c>
       <c r="H23">
@@ -2495,7 +9626,7 @@
         <v>5.2064347000000399</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="H24">
@@ -2522,7 +9653,7 @@
         <v>5.4452714000001299</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="H25">

--- a/TP1-A21/data_resultat.xlsx
+++ b/TP1-A21/data_resultat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Desktop\Poly\A2021\INF8775\TPs\TP1-A21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53F4DF-E04C-4A1C-872A-D32A83706C7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20110385-B355-41F4-AF39-B4ADA456A232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D10583DE-7CAB-4211-8E9D-E4F57287116E}"/>
   </bookViews>
@@ -314,7 +314,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -992,7 +991,7 @@
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>3</a:t>
+                  <a:t>2.807</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA" sz="1000">
                   <a:effectLst/>
@@ -1470,7 +1469,7 @@
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
@@ -1482,7 +1481,7 @@
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>2.80</a:t>
+                  <a:t>3</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA" sz="1000">
                   <a:effectLst/>
@@ -2449,7 +2448,7 @@
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>2.80</a:t>
+                  <a:t>2.807</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
@@ -8177,16 +8176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>192677</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>42454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>11974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8213,16 +8212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232954</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9797</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8585,8 +8584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0C2ED4-B490-4C28-B94A-00AAA31F2B2B}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8720,27 +8719,27 @@
         <v>-0.29509912844475394</v>
       </c>
       <c r="U2">
-        <f>K2^3</f>
+        <f t="shared" ref="U2:U7" si="0">K2^3</f>
         <v>512</v>
       </c>
       <c r="V2">
-        <f>L2/U2</f>
+        <f t="shared" ref="V2:V7" si="1">L2/U2</f>
         <v>3.1069335937512402E-4</v>
       </c>
       <c r="W2">
-        <f>K2^2.8</f>
+        <f t="shared" ref="W2:W7" si="2">K2^2.8</f>
         <v>337.79402515786057</v>
       </c>
       <c r="X2">
-        <f>M2/W2</f>
+        <f t="shared" ref="X2:X7" si="3">M2/W2</f>
         <v>8.1821311040311817E-3</v>
       </c>
       <c r="Y2">
-        <f>K2^3</f>
+        <f t="shared" ref="Y2:Y7" si="4">K2^3</f>
         <v>512</v>
       </c>
       <c r="Z2">
-        <f>N2/Y2</f>
+        <f t="shared" ref="Z2:Z7" si="5">N2/Y2</f>
         <v>9.8999023437503376E-4</v>
       </c>
     </row>
@@ -8764,7 +8763,7 @@
         <v>5.5450000000001299E-4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="0">2^3</f>
+        <f t="shared" ref="G3:G5" si="6">2^3</f>
         <v>8</v>
       </c>
       <c r="H3" s="2">
@@ -8787,43 +8786,43 @@
         <v>2.6863249999999823</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O7" si="1">LOG(K3)</f>
+        <f t="shared" ref="O3:O7" si="7">LOG(K3)</f>
         <v>1.2041199826559248</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P7" si="2">LOG(L3)</f>
+        <f t="shared" ref="P3:P7" si="8">LOG(L3)</f>
         <v>-0.15801519540988565</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="3">LOG(M3)</f>
+        <f t="shared" ref="Q3:Q7" si="9">LOG(M3)</f>
         <v>1.1270488874539486</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="4">LOG(N3)</f>
+        <f t="shared" ref="R3:R7" si="10">LOG(N3)</f>
         <v>0.42915855381599588</v>
       </c>
       <c r="U3">
-        <f>K3^3</f>
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
       <c r="V3">
-        <f>L3/U3</f>
+        <f t="shared" si="1"/>
         <v>1.6967773437500018E-4</v>
       </c>
       <c r="W3">
-        <f>K3^2.8</f>
+        <f t="shared" si="2"/>
         <v>2352.5342310339256</v>
       </c>
       <c r="X3">
-        <f>M3/W3</f>
+        <f t="shared" si="3"/>
         <v>5.6952518791241816E-3</v>
       </c>
       <c r="Y3">
-        <f>K3^3</f>
+        <f t="shared" si="4"/>
         <v>4096</v>
       </c>
       <c r="Z3">
-        <f>N3/Y3</f>
+        <f t="shared" si="5"/>
         <v>6.5584106445312068E-4</v>
       </c>
     </row>
@@ -8847,7 +8846,7 @@
         <v>6.1409999999995004E-4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H4">
@@ -8870,43 +8869,43 @@
         <v>15.2584249999999</v>
       </c>
       <c r="O4">
+        <f t="shared" si="7"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>0.62767047287101851</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>1.9292943675246235</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="10"/>
+        <v>1.1835097073337799</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="1"/>
-        <v>1.505149978319906</v>
-      </c>
-      <c r="P4">
+        <v>1.2948532104492286E-4</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="2"/>
-        <v>0.62767047287101851</v>
-      </c>
-      <c r="Q4">
+        <v>16383.999999999991</v>
+      </c>
+      <c r="X4">
         <f t="shared" si="3"/>
-        <v>1.9292943675246235</v>
-      </c>
-      <c r="R4">
+        <v>5.1865005493164085E-3</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="4"/>
-        <v>1.1835097073337799</v>
-      </c>
-      <c r="U4">
-        <f>K4^3</f>
         <v>32768</v>
       </c>
-      <c r="V4">
-        <f>L4/U4</f>
-        <v>1.2948532104492286E-4</v>
-      </c>
-      <c r="W4">
-        <f>K4^2.8</f>
-        <v>16383.999999999991</v>
-      </c>
-      <c r="X4">
-        <f>M4/W4</f>
-        <v>5.1865005493164085E-3</v>
-      </c>
-      <c r="Y4">
-        <f>K4^3</f>
-        <v>32768</v>
-      </c>
       <c r="Z4">
-        <f>N4/Y4</f>
+        <f t="shared" si="5"/>
         <v>4.6565017700195006E-4</v>
       </c>
     </row>
@@ -8930,7 +8929,7 @@
         <v>5.0320000000003695E-4</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H5">
@@ -8953,43 +8952,43 @@
         <v>97.632549999999995</v>
       </c>
       <c r="O5">
+        <f t="shared" si="7"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>1.4861622386732232</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="9"/>
+        <v>2.7307678662145167</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>1.9895946325094722</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="1"/>
-        <v>1.8061799739838871</v>
-      </c>
-      <c r="P5">
+        <v>1.1684827804565355E-4</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="2"/>
-        <v>1.4861622386732232</v>
-      </c>
-      <c r="Q5">
+        <v>114104.80343234935</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="3"/>
-        <v>2.7307678662145167</v>
-      </c>
-      <c r="R5">
+        <v>4.7148072107144837E-3</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="4"/>
-        <v>1.9895946325094722</v>
-      </c>
-      <c r="U5">
-        <f>K5^3</f>
         <v>262144</v>
       </c>
-      <c r="V5">
-        <f>L5/U5</f>
-        <v>1.1684827804565355E-4</v>
-      </c>
-      <c r="W5">
-        <f>K5^2.8</f>
-        <v>114104.80343234935</v>
-      </c>
-      <c r="X5">
-        <f>M5/W5</f>
-        <v>4.7148072107144837E-3</v>
-      </c>
-      <c r="Y5">
-        <f>K5^3</f>
-        <v>262144</v>
-      </c>
       <c r="Z5">
-        <f>N5/Y5</f>
+        <f t="shared" si="5"/>
         <v>3.7243862152099607E-4</v>
       </c>
     </row>
@@ -9039,43 +9038,43 @@
         <v>792.92204999999876</v>
       </c>
       <c r="O6">
+        <f t="shared" si="7"/>
+        <v>2.1072099696478683</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>2.3777121194114659</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="9"/>
+        <v>3.593352405421244</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>2.8992304951122811</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="1"/>
-        <v>2.1072099696478683</v>
-      </c>
-      <c r="P6">
+        <v>1.1378426551818836E-4</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="2"/>
-        <v>2.3777121194114659</v>
-      </c>
-      <c r="Q6">
+        <v>794672.00722260214</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="3"/>
-        <v>3.593352405421244</v>
-      </c>
-      <c r="R6">
+        <v>4.9336063046974375E-3</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="4"/>
-        <v>2.8992304951122811</v>
-      </c>
-      <c r="U6">
-        <f>K6^3</f>
         <v>2097152</v>
       </c>
-      <c r="V6">
-        <f>L6/U6</f>
-        <v>1.1378426551818836E-4</v>
-      </c>
-      <c r="W6">
-        <f>K6^2.8</f>
-        <v>794672.00722260214</v>
-      </c>
-      <c r="X6">
-        <f>M6/W6</f>
-        <v>4.9336063046974375E-3</v>
-      </c>
-      <c r="Y6">
-        <f>K6^3</f>
-        <v>2097152</v>
-      </c>
       <c r="Z6">
-        <f>N6/Y6</f>
+        <f t="shared" si="5"/>
         <v>3.780946969985956E-4</v>
       </c>
     </row>
@@ -9099,7 +9098,7 @@
         <v>2.3290000000000199E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G25" si="5">2^4</f>
+        <f t="shared" ref="G7:G9" si="11">2^4</f>
         <v>16</v>
       </c>
       <c r="H7">
@@ -9122,35 +9121,35 @@
         <v>5574.0187000000624</v>
       </c>
       <c r="O7">
+        <f t="shared" si="7"/>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>3.3689957126871852</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>4.4929209411274673</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>3.7461684213728388</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="1"/>
-        <v>2.4082399653118496</v>
-      </c>
-      <c r="P7">
+        <v>1.3940418660640463E-4</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="2"/>
-        <v>3.3689957126871852</v>
-      </c>
-      <c r="Q7">
+        <v>5534417.3081863848</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="3"/>
-        <v>4.4929209411274673</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="4"/>
-        <v>3.7461684213728388</v>
-      </c>
-      <c r="U7">
-        <f>K7^3</f>
-        <v>16777216</v>
-      </c>
-      <c r="V7">
-        <f>L7/U7</f>
-        <v>1.3940418660640463E-4</v>
-      </c>
-      <c r="W7">
-        <f>K7^2.8</f>
-        <v>5534417.3081863848</v>
-      </c>
-      <c r="X7">
-        <f>M7/W7</f>
         <v>5.6214588804101521E-3</v>
       </c>
       <c r="Y7">
@@ -9158,7 +9157,7 @@
         <v>16777216</v>
       </c>
       <c r="Z7">
-        <f>N7/Y7</f>
+        <f t="shared" si="5"/>
         <v>3.3223740458488836E-4</v>
       </c>
     </row>
@@ -9182,7 +9181,7 @@
         <v>3.8590000000000499E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="H8">
@@ -9209,7 +9208,7 @@
         <v>2.1526999999998899E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="H9">
@@ -9266,7 +9265,7 @@
         <v>1.4519600000000001E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G13" si="6">2^5</f>
+        <f t="shared" ref="G11:G13" si="12">2^5</f>
         <v>32</v>
       </c>
       <c r="H11">
@@ -9293,7 +9292,7 @@
         <v>1.5998699999999901E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="H12">
@@ -9320,7 +9319,7 @@
         <v>1.4724799999999901E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="H13">
@@ -9377,7 +9376,7 @@
         <v>9.8696600000000204E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G17" si="7">2^6</f>
+        <f t="shared" ref="G15:G17" si="13">2^6</f>
         <v>64</v>
       </c>
       <c r="H15">
@@ -9404,7 +9403,7 @@
         <v>9.6874500000000197E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="H16">
@@ -9431,7 +9430,7 @@
         <v>9.60362999999997E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="H17">
@@ -9488,7 +9487,7 @@
         <v>0.95315970000000005</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G21" si="8">2^7</f>
+        <f t="shared" ref="G19:G21" si="14">2^7</f>
         <v>128</v>
       </c>
       <c r="H19">
@@ -9515,7 +9514,7 @@
         <v>0.70846479999999801</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="H20">
@@ -9542,7 +9541,7 @@
         <v>0.80264559999999796</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="H21">
@@ -9599,7 +9598,7 @@
         <v>5.5329182000000401</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G25" si="9">2^8</f>
+        <f t="shared" ref="G23:G25" si="15">2^8</f>
         <v>256</v>
       </c>
       <c r="H23">
@@ -9626,7 +9625,7 @@
         <v>5.2064347000000399</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="H24">
@@ -9653,7 +9652,7 @@
         <v>5.4452714000001299</v>
       </c>
       <c r="G25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="H25">
